--- a/measures/3 translation and stimuli selection/2 master/text/awareness_2b.xlsx
+++ b/measures/3 translation and stimuli selection/2 master/text/awareness_2b.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/unconscious-ec-RRR/measures/3 translation and stimuli selection/2 master/text/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C698B70F-73E7-8044-9754-7CCE76EED34A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3000" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="3660" yWindow="960" windowWidth="26820" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,33 +27,33 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>awareness_2b_question_text</t>
+  </si>
+  <si>
     <t>During the first task, which of the two characters was consistently presented with POSITIVE images and words? 
-1 = BERGMITE (certainly)
-2 = BERGMITE (probably)
-3 = BERGMITE (guess)
-4 = GOLETT (guess)
-5 = GOLETT (probably)
-6 = GOLETT (certainly)
+1 = [CS 1] (certainly)
+2 = [CS 1] (probably)
+3 = [CS 1] (guess)
+4 = [CS 2] (guess)
+5 = [CS 2] (probably)
+6 = [CS 2] (certainly)
 Click the line, then confirm your choice by clicking the grey button below.</t>
   </si>
   <si>
     <t>During the first task, which of the two characters was consistently presented with NEGATIVE images and words? 
-1 = BERGMITE (certainly)
-2 = BERGMITE (probably)
-3 = BERGMITE (guess)
-4 = GOLETT (guess)
-5 = GOLETT (probably)
-6 = GOLETT (certainly)
+1 = [CS 1] (certainly)
+2 = [CS 1] (probably)
+3 = [CS 1] (guess)
+4 = [CS 2] (guess)
+5 = [CS 2] (probably)
+6 = [CS 2] (certainly)
 Click the line, then confirm your choice by clicking the grey button below.</t>
-  </si>
-  <si>
-    <t>awareness_2b_question_text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -891,36 +897,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="89.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="195" customHeight="1">
-      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="198" customHeight="1">
+    <row r="2" spans="1:1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
